--- a/biology/Botanique/Cerastium_dubium/Cerastium_dubium.xlsx
+++ b/biology/Botanique/Cerastium_dubium/Cerastium_dubium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerastium dubium, de noms communs Céraiste douteux, Céraiste aberrant ou Stellaire visqueuse, est une espèce de plantes à fleurs annuelle de la famille des Caryophyllaceae et du genre Cerastium, originaire d'Europe.
 </t>
@@ -513,18 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Tige (détail).
 			Tige et feuilles (détail).
 			Feuilles (détail).
-C'est une plante annuelle. La tige est genouillée, assez grêle, de 10 à 35 cm de hauteur, pubescente-glanduleuse au sommet. Les feuilles sont ciliées à la base, souvent velues-glanduleuses, les caulinaires étroites, sublinéaires, les basales plus longues, spatulées[3].
-Appareil reproducteur
-			Détails de la fleurs, avec les trois styles caractéristiques.
-			Fleurs.
-			Graines.
-L'inflorescence est en cyme pauciflore lâche ; les bractées sont herbacées, non membraneuses ; les pédoncules floraux sont dressés, inégaux, au moins aussi longs que le calice. Les fleurs sont blanches, grandes ; les sépales sont lancéolés-aigus, à trois nervures, pubescents extérieurement, scarieux au bord et au sommet ; les pétales sont blancs, fortement échancrés, plus longs que les sépales ; il y a trois styles. Le fruit est une capsule s'ouvrant par six dents. La floraison se déroule d'avril à juin[3].
-Confusions possibles
-La détermination des Cerastium est souvent difficile, et implique des échantillons complets (fleurs et fruits, graines...). C. dubium est cependant assez facile à reconnaître à ses feuilles velues-glanduleuses, à ses trois styles, et à son caractère de plante annuelle[3].
+C'est une plante annuelle. La tige est genouillée, assez grêle, de 10 à 35 cm de hauteur, pubescente-glanduleuse au sommet. Les feuilles sont ciliées à la base, souvent velues-glanduleuses, les caulinaires étroites, sublinéaires, les basales plus longues, spatulées.
 </t>
         </is>
       </c>
@@ -550,12 +561,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce est thérophyte ; elle peut être localement abondante. Elle pousse dans les pâturages temporairement inondés, les bords des chemins dans les prairies humides[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Détails de la fleurs, avec les trois styles caractéristiques.
+			Fleurs.
+			Graines.
+L'inflorescence est en cyme pauciflore lâche ; les bractées sont herbacées, non membraneuses ; les pédoncules floraux sont dressés, inégaux, au moins aussi longs que le calice. Les fleurs sont blanches, grandes ; les sépales sont lancéolés-aigus, à trois nervures, pubescents extérieurement, scarieux au bord et au sommet ; les pétales sont blancs, fortement échancrés, plus longs que les sépales ; il y a trois styles. Le fruit est une capsule s'ouvrant par six dents. La floraison se déroule d'avril à juin.
 </t>
         </is>
       </c>
@@ -581,12 +602,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce a pour aire de répartition l'Europe méridionale et centrale, de l'Espagne à la Crimée, au nord jusqu'en France, en Pologne, en Russie ; elle est aussi présente en Asie occidentale et au Maghreb. En France, elle pousse çà et là, disséminée dans les régions atlantiques, des Landes à l'Anjou et à la Touraine, et, plus rarement, en Lorraine[3].
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La détermination des Cerastium est souvent difficile, et implique des échantillons complets (fleurs et fruits, graines...). C. dubium est cependant assez facile à reconnaître à ses feuilles velues-glanduleuses, à ses trois styles, et à son caractère de plante annuelle.
 </t>
         </is>
       </c>
@@ -612,12 +639,80 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est thérophyte ; elle peut être localement abondante. Elle pousse dans les pâturages temporairement inondés, les bords des chemins dans les prairies humides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cerastium_dubium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cerastium_dubium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a pour aire de répartition l'Europe méridionale et centrale, de l'Espagne à la Crimée, au nord jusqu'en France, en Pologne, en Russie ; elle est aussi présente en Asie occidentale et au Maghreb. En France, elle pousse çà et là, disséminée dans les régions atlantiques, des Landes à l'Anjou et à la Touraine, et, plus rarement, en Lorraine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cerastium_dubium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cerastium_dubium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Céraiste douteux est globalement rare, et vulnérable, sur tout le territoire français. L'espèce est menacée par la dégradation ou la destruction de ses milieux, souvent fragiles[3]. Elle est « en danger critique d'extinction » (CR) dans le Centre-Val-de-Loire et « en danger » (EN) dans le Poitou-Charentes[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Céraiste douteux est globalement rare, et vulnérable, sur tout le territoire français. L'espèce est menacée par la dégradation ou la destruction de ses milieux, souvent fragiles. Elle est « en danger critique d'extinction » (CR) dans le Centre-Val-de-Loire et « en danger » (EN) dans le Poitou-Charentes.
 </t>
         </is>
       </c>
